--- a/resource/testdata.xlsx
+++ b/resource/testdata.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbinayaGovindarajan\eclipse-workspace\Elearning_BDD\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F19C747-B54C-4B8B-A76D-ECB0BF1D7E3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F6AA01-87E8-4F9A-978D-7B501297E0A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>URL</t>
   </si>
@@ -64,18 +64,6 @@
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>915198435</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>64483511</t>
   </si>
   <si>
     <t>82</t>
@@ -88,7 +76,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,19 +397,19 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.36328125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.54296875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.08984375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.6328125" collapsed="true"/>
+    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -474,13 +461,13 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
